--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Hello World123!</t>
   </si>
@@ -72,6 +72,60 @@
   </si>
   <si>
     <t>Респондент11</t>
+  </si>
+  <si>
+    <t>Респондент12</t>
+  </si>
+  <si>
+    <t>Респондент13</t>
+  </si>
+  <si>
+    <t>Респондент14</t>
+  </si>
+  <si>
+    <t>Респондент15</t>
+  </si>
+  <si>
+    <t>Респондент16</t>
+  </si>
+  <si>
+    <t>Респондент17</t>
+  </si>
+  <si>
+    <t>Респондент18</t>
+  </si>
+  <si>
+    <t>Респондент19</t>
+  </si>
+  <si>
+    <t>Респондент20</t>
+  </si>
+  <si>
+    <t>Респондент21</t>
+  </si>
+  <si>
+    <t>Респондент22</t>
+  </si>
+  <si>
+    <t>Респондент23</t>
+  </si>
+  <si>
+    <t>Респондент24</t>
+  </si>
+  <si>
+    <t>Респондент25</t>
+  </si>
+  <si>
+    <t>Респондент26</t>
+  </si>
+  <si>
+    <t>Респондент27</t>
+  </si>
+  <si>
+    <t>Респондент28</t>
+  </si>
+  <si>
+    <t>Респондент29</t>
   </si>
 </sst>
 </file>
@@ -117,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +456,420 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Hello World123!</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Респондент29</t>
+  </si>
+  <si>
+    <t>Респондент30</t>
+  </si>
+  <si>
+    <t>Респондент31</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,6 +876,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Hello World123!</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Респондент29</t>
+  </si>
+  <si>
+    <t>Респондент30</t>
+  </si>
+  <si>
+    <t>Респондент31</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,6 +876,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Респондент9</t>
+  </si>
+  <si>
+    <t>Респондент10</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -369,6 +372,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t/>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Респондент10</t>
+  </si>
+  <si>
+    <t>Респондент11</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -377,21 +380,44 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t/>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>апапа</t>
+  </si>
+  <si>
+    <t>Респондент2</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -152,6 +158,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -5,14 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId3"/>
+    <sheet name="Test3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -33,24 +35,6 @@
   </si>
   <si>
     <t>В6</t>
-  </si>
-  <si>
-    <t>Электронная почта</t>
-  </si>
-  <si>
-    <t>Респондент1</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>апапа</t>
-  </si>
-  <si>
-    <t>Респондент2</t>
-  </si>
-  <si>
-    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -96,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -128,57 +112,82 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>12</v>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t/>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>В6</t>
+  </si>
+  <si>
+    <t>Электронная почта</t>
+  </si>
+  <si>
+    <t>Респондент1</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -112,6 +121,32 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
@@ -120,7 +155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -149,6 +184,29 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
@@ -157,7 +215,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -189,6 +247,32 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>

--- a/Stankin.Connect/myWorkbook1.xlsx
+++ b/Stankin.Connect/myWorkbook1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Респондент2</t>
+  </si>
+  <si>
+    <t>Респондент3</t>
+  </si>
+  <si>
+    <t>Респондент4</t>
+  </si>
+  <si>
+    <t>123@mail.ru</t>
+  </si>
+  <si>
+    <t>Респондент5</t>
+  </si>
+  <si>
+    <t>123@mail.ru232</t>
   </si>
 </sst>
 </file>
@@ -89,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -136,7 +157,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
@@ -146,6 +167,104 @@
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
